--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1949670.128818413</v>
+        <v>1947418.049107206</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283204</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968920.06193611</v>
+        <v>9968920.061936108</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738213</v>
       </c>
       <c r="E2" t="n">
-        <v>75.4571321610379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034782</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.6811857025929</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.82926262591601</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699554</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.78085380126518</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>103.6450161510108</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386356</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406096</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.18447438924</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>55.52079624060607</v>
+        <v>121.8000472740261</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833005</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428391</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505371</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>253.630393765991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1557845699813</v>
+        <v>121.800047274036</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943748</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,16 +4325,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757135</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757135</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757135</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>777.6936570343842</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>777.6936570343842</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.6936570343842</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835253</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288091</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898465</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>541.107849900239</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452355</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899375</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.3330353074677</v>
+        <v>246.527082541107</v>
       </c>
       <c r="C7" t="n">
-        <v>155.3330353074677</v>
+        <v>246.527082541107</v>
       </c>
       <c r="D7" t="n">
-        <v>155.3330353074677</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>155.3330353074677</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>155.3330353074677</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3330353074677</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>155.3330353074677</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133546</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>155.3330353074677</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W7" t="n">
-        <v>155.3330353074677</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X7" t="n">
-        <v>155.3330353074677</v>
+        <v>246.527082541107</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.3330353074677</v>
+        <v>246.527082541107</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>510.784551090019</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,22 +4799,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879453</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600384</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477026</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653095</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673992</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216009</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238951</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327666</v>
+        <v>513.8536007400626</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048597</v>
+        <v>513.8536007400626</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925239</v>
+        <v>363.7369613277268</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101308</v>
+        <v>363.7369613277268</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122204</v>
+        <v>216.8470138298165</v>
       </c>
       <c r="G16" t="n">
-        <v>149.8982754122204</v>
+        <v>216.8470138298165</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797658</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.1502409108</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570809</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832654</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.4610805105</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704554</v>
+        <v>1144.28419561185</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138324</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630063</v>
+        <v>695.5020655703023</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400735</v>
+        <v>513.853600740063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121666</v>
+        <v>344.9174178121561</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121666</v>
+        <v>194.8007783998204</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270465</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570809</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.4610805105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854698</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648811</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.28419561185</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138434</v>
+        <v>916.2946447138329</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703132</v>
+        <v>695.5020655703028</v>
       </c>
     </row>
     <row r="20">
@@ -5735,64 +5735,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745236</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="E37" t="n">
-        <v>197.0043242297712</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="F37" t="n">
-        <v>197.0043242297712</v>
+        <v>216.8470138298265</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038356</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797757</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922804</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.505489761035</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>84.77391660561779</v>
+        <v>18.49466557219775</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823912</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392193995</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489209</v>
       </c>
       <c r="E25" t="n">
-        <v>137.2878198583893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>32.89260457059999</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>63.36835372228751</v>
+        <v>43.72409101823281</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.5848348017</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348018</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348018</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687957</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687957</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687957</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687959</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26451,7 +26451,7 @@
         <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395531</v>
+        <v>373198.5542395528</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395526</v>
       </c>
       <c r="E6" t="n">
-        <v>123030.9881448622</v>
+        <v>122996.2502194269</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.4499522177</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522179</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="H6" t="n">
-        <v>448443.4499522179</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522179</v>
+        <v>448408.712026782</v>
       </c>
       <c r="J6" t="n">
-        <v>230912.2475549404</v>
+        <v>230877.5096295046</v>
       </c>
       <c r="K6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.7120267822</v>
       </c>
       <c r="L6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="M6" t="n">
-        <v>363388.4220167059</v>
+        <v>363353.6840912702</v>
       </c>
       <c r="N6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522177</v>
+        <v>448408.712026782</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53065250301995</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.693735710675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2566436803249</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.8346192169472</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>8.41971072330665</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>307.2767095024427</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351647</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,19 +28062,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.230537482492979e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-5.91108066722795e-13</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-2.140467216127673e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394538</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191227</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010366</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899094</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496669</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
